--- a/data/pca/factorExposure/factorExposure_2018-06-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02201441704748035</v>
+        <v>-0.02121133909774423</v>
       </c>
       <c r="C2">
-        <v>0.02607248221112765</v>
+        <v>0.01901353237170399</v>
       </c>
       <c r="D2">
-        <v>-0.0259958573467467</v>
+        <v>0.02188849668431096</v>
       </c>
       <c r="E2">
-        <v>-0.01366209191622475</v>
+        <v>0.01649065007808648</v>
       </c>
       <c r="F2">
-        <v>0.1133324566453325</v>
+        <v>-0.004987532593207942</v>
       </c>
       <c r="G2">
-        <v>-0.06008950760816869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05091704599577361</v>
+      </c>
+      <c r="H2">
+        <v>0.0504736988898343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09866008622648378</v>
+        <v>-0.08140563529184618</v>
       </c>
       <c r="C3">
-        <v>-0.01532096566920543</v>
+        <v>-0.01202853219639912</v>
       </c>
       <c r="D3">
-        <v>-0.08599486460081768</v>
+        <v>0.02680838399368748</v>
       </c>
       <c r="E3">
-        <v>-0.02832317351037815</v>
+        <v>0.00971963683196753</v>
       </c>
       <c r="F3">
-        <v>0.3984546463304755</v>
+        <v>0.02851970123992806</v>
       </c>
       <c r="G3">
-        <v>-0.1506117717781449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1731884699358307</v>
+      </c>
+      <c r="H3">
+        <v>0.1654524026803108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04475523506049749</v>
+        <v>-0.04493758176879346</v>
       </c>
       <c r="C4">
-        <v>0.01982005148567818</v>
+        <v>0.005424093468050156</v>
       </c>
       <c r="D4">
-        <v>0.0152452367169205</v>
+        <v>0.04772164867346366</v>
       </c>
       <c r="E4">
-        <v>0.0473558711157217</v>
+        <v>-0.02223131669375748</v>
       </c>
       <c r="F4">
-        <v>0.08668720995398416</v>
+        <v>-0.05173543421300441</v>
       </c>
       <c r="G4">
-        <v>-0.05929016354449047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03879095289077004</v>
+      </c>
+      <c r="H4">
+        <v>0.05803509670747573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02002146984557792</v>
+        <v>-0.02552448179765499</v>
       </c>
       <c r="C6">
-        <v>0.01298105438727817</v>
+        <v>0.004561758725289954</v>
       </c>
       <c r="D6">
-        <v>-0.0130258124873768</v>
+        <v>0.0512486376493506</v>
       </c>
       <c r="E6">
-        <v>0.02018610104606158</v>
+        <v>-0.007422505395332737</v>
       </c>
       <c r="F6">
-        <v>0.02422651240976382</v>
+        <v>-0.03060063905686778</v>
       </c>
       <c r="G6">
-        <v>0.01007544058774834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01267240663954117</v>
+      </c>
+      <c r="H6">
+        <v>0.06406980218403124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02380237595269944</v>
+        <v>-0.02212366897924456</v>
       </c>
       <c r="C7">
-        <v>0.003879542446723368</v>
+        <v>0.002981507369126654</v>
       </c>
       <c r="D7">
-        <v>-0.01375455968710649</v>
+        <v>0.02747459029215588</v>
       </c>
       <c r="E7">
-        <v>0.02984342080992334</v>
+        <v>-0.04203915962884595</v>
       </c>
       <c r="F7">
-        <v>0.0519054687873178</v>
+        <v>-0.005253795803067344</v>
       </c>
       <c r="G7">
-        <v>-0.0658914376576778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02412770714395103</v>
+      </c>
+      <c r="H7">
+        <v>0.03892121060471196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01826893273399556</v>
+        <v>-0.005507348351707424</v>
       </c>
       <c r="C8">
-        <v>0.0156452394955276</v>
+        <v>-0.001354424888970946</v>
       </c>
       <c r="D8">
-        <v>-0.007052007368460164</v>
+        <v>0.01101882641740874</v>
       </c>
       <c r="E8">
-        <v>0.04075229020714175</v>
+        <v>-0.007107928426382203</v>
       </c>
       <c r="F8">
-        <v>0.10350076172138</v>
+        <v>-0.018295639034767</v>
       </c>
       <c r="G8">
-        <v>-0.05202530509872604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04372537669058344</v>
+      </c>
+      <c r="H8">
+        <v>0.04360547829865414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0346607854291028</v>
+        <v>-0.03613530037394129</v>
       </c>
       <c r="C9">
-        <v>0.01933430869886138</v>
+        <v>0.001190520130741142</v>
       </c>
       <c r="D9">
-        <v>0.006533764956677168</v>
+        <v>0.03560724828867937</v>
       </c>
       <c r="E9">
-        <v>0.03833197328138901</v>
+        <v>-0.01173918502025588</v>
       </c>
       <c r="F9">
-        <v>0.09263490545165692</v>
+        <v>-0.02774444782239453</v>
       </c>
       <c r="G9">
-        <v>-0.0579802783731096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0464260551379572</v>
+      </c>
+      <c r="H9">
+        <v>0.05521063995573747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0306534135993413</v>
+        <v>-0.1042248204919133</v>
       </c>
       <c r="C10">
-        <v>-0.05233507773897985</v>
+        <v>-0.02719329382823727</v>
       </c>
       <c r="D10">
-        <v>0.08390028245809686</v>
+        <v>-0.1577020531955527</v>
       </c>
       <c r="E10">
-        <v>-0.114604776875822</v>
+        <v>0.006747900172353364</v>
       </c>
       <c r="F10">
-        <v>0.05203833132405097</v>
+        <v>0.045030222930545</v>
       </c>
       <c r="G10">
-        <v>0.006470765506198574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02548960059177869</v>
+      </c>
+      <c r="H10">
+        <v>0.009366591512276305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03414465114439094</v>
+        <v>-0.02079632978014966</v>
       </c>
       <c r="C11">
-        <v>0.01735477064270575</v>
+        <v>-0.0078327873821919</v>
       </c>
       <c r="D11">
-        <v>-0.01811543341931945</v>
+        <v>0.0400370540836034</v>
       </c>
       <c r="E11">
-        <v>0.0288671763347528</v>
+        <v>0.001189681509714563</v>
       </c>
       <c r="F11">
-        <v>0.04693983569292255</v>
+        <v>-0.01086998965901062</v>
       </c>
       <c r="G11">
-        <v>-0.02440575006086783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02497307489465211</v>
+      </c>
+      <c r="H11">
+        <v>0.04615423345766884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04216226573679855</v>
+        <v>-0.02943949977230987</v>
       </c>
       <c r="C12">
-        <v>0.01868504707320482</v>
+        <v>-0.006076201445837618</v>
       </c>
       <c r="D12">
-        <v>-0.01106413425381159</v>
+        <v>0.04049817041987784</v>
       </c>
       <c r="E12">
-        <v>0.04092955839492044</v>
+        <v>-0.008668003184114502</v>
       </c>
       <c r="F12">
-        <v>0.0319646100081705</v>
+        <v>-0.01792086533917662</v>
       </c>
       <c r="G12">
-        <v>-0.01152093398564046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.009168767338459387</v>
+      </c>
+      <c r="H12">
+        <v>0.02365576733015458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01553312893341257</v>
+        <v>-0.02547812127765507</v>
       </c>
       <c r="C13">
-        <v>0.02444386938700599</v>
+        <v>0.01483844898467486</v>
       </c>
       <c r="D13">
-        <v>-0.0105615274488162</v>
+        <v>0.0001920823803483866</v>
       </c>
       <c r="E13">
-        <v>-0.004635126207325177</v>
+        <v>0.01264303989570036</v>
       </c>
       <c r="F13">
-        <v>0.07919717467028876</v>
+        <v>-0.01175192590183488</v>
       </c>
       <c r="G13">
-        <v>-0.04200674303373076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05504292100094884</v>
+      </c>
+      <c r="H13">
+        <v>0.06284626425769216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01485633149255889</v>
+        <v>-0.01746574988270596</v>
       </c>
       <c r="C14">
-        <v>0.00647415257688511</v>
+        <v>0.0009255702129549999</v>
       </c>
       <c r="D14">
-        <v>0.004509774099323527</v>
+        <v>0.005541558763472478</v>
       </c>
       <c r="E14">
-        <v>0.03588309203599716</v>
+        <v>-0.01349843201857302</v>
       </c>
       <c r="F14">
-        <v>0.05693929271642079</v>
+        <v>-0.01402692383763816</v>
       </c>
       <c r="G14">
-        <v>-0.07120231839718509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04246873557981494</v>
+      </c>
+      <c r="H14">
+        <v>0.007756361763436984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02666518788196407</v>
+        <v>-0.02237128013454209</v>
       </c>
       <c r="C16">
-        <v>0.02077792391256635</v>
+        <v>-0.008366679153743511</v>
       </c>
       <c r="D16">
-        <v>-0.01681251634914727</v>
+        <v>0.03481653568721606</v>
       </c>
       <c r="E16">
-        <v>0.02263858252107097</v>
+        <v>-0.002638345997221613</v>
       </c>
       <c r="F16">
-        <v>0.05173979343902683</v>
+        <v>-0.01621024749130202</v>
       </c>
       <c r="G16">
-        <v>-0.02701150387744172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02193049321925353</v>
+      </c>
+      <c r="H16">
+        <v>0.03855744343131881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04774360738115956</v>
+        <v>-0.03405678697851119</v>
       </c>
       <c r="C19">
-        <v>0.02283521199074569</v>
+        <v>0.00083499587452773</v>
       </c>
       <c r="D19">
-        <v>-0.01472180952672949</v>
+        <v>0.02144569328420781</v>
       </c>
       <c r="E19">
-        <v>0.03521210137738113</v>
+        <v>-0.005173501461367637</v>
       </c>
       <c r="F19">
-        <v>0.1054631517284337</v>
+        <v>-0.02166130184741924</v>
       </c>
       <c r="G19">
-        <v>-0.02584997911433512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05493198063560624</v>
+      </c>
+      <c r="H19">
+        <v>0.07271015578230619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0007676703406455287</v>
+        <v>-0.009980365250662062</v>
       </c>
       <c r="C20">
-        <v>0.01253933042618624</v>
+        <v>0.006664286416029733</v>
       </c>
       <c r="D20">
-        <v>0.002822187061257145</v>
+        <v>0.008704530536220556</v>
       </c>
       <c r="E20">
-        <v>0.03097071000908524</v>
+        <v>-0.003958497003644232</v>
       </c>
       <c r="F20">
-        <v>0.07438470477203477</v>
+        <v>-0.01395996511558292</v>
       </c>
       <c r="G20">
-        <v>-0.07073158986473418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04802972647821591</v>
+      </c>
+      <c r="H20">
+        <v>0.01920411432184606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002669297472298332</v>
+        <v>-0.01626667525530196</v>
       </c>
       <c r="C21">
-        <v>-0.0132905356129706</v>
+        <v>0.008219217533221334</v>
       </c>
       <c r="D21">
-        <v>-0.01218327699680934</v>
+        <v>0.008486325893109709</v>
       </c>
       <c r="E21">
-        <v>0.02186587922220678</v>
+        <v>-0.01737981522905154</v>
       </c>
       <c r="F21">
-        <v>0.05264538584818934</v>
+        <v>-0.005500869792618953</v>
       </c>
       <c r="G21">
-        <v>-0.02271913629216655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04736293122405749</v>
+      </c>
+      <c r="H21">
+        <v>0.04404167246323099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03060301151452184</v>
+        <v>-0.01960016643619593</v>
       </c>
       <c r="C24">
-        <v>0.02241161923372481</v>
+        <v>-0.002657756731853005</v>
       </c>
       <c r="D24">
-        <v>-0.007386253936464514</v>
+        <v>0.03550213811283353</v>
       </c>
       <c r="E24">
-        <v>0.008793562013326475</v>
+        <v>0.0001314424501111554</v>
       </c>
       <c r="F24">
-        <v>0.04446312162450553</v>
+        <v>-0.01112501262844293</v>
       </c>
       <c r="G24">
-        <v>-0.02389767611660087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01853236932417032</v>
+      </c>
+      <c r="H24">
+        <v>0.04258692373698725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03012277743493817</v>
+        <v>-0.02979090185394925</v>
       </c>
       <c r="C25">
-        <v>0.0120713303381217</v>
+        <v>-0.0005447917011830375</v>
       </c>
       <c r="D25">
-        <v>-0.0175276565861019</v>
+        <v>0.03459115798696627</v>
       </c>
       <c r="E25">
-        <v>0.03105909411667575</v>
+        <v>-0.004377952759971543</v>
       </c>
       <c r="F25">
-        <v>0.0495611168394953</v>
+        <v>-0.01705262374353146</v>
       </c>
       <c r="G25">
-        <v>-0.00724098246246001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.022393632190327</v>
+      </c>
+      <c r="H25">
+        <v>0.04574954190257055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02046663063730162</v>
+        <v>-0.01969595885698762</v>
       </c>
       <c r="C26">
-        <v>0.006323454219540453</v>
+        <v>0.01770462929294989</v>
       </c>
       <c r="D26">
-        <v>-0.03083024303444555</v>
+        <v>0.003157917894779292</v>
       </c>
       <c r="E26">
-        <v>0.008041857849494446</v>
+        <v>0.001345974715156469</v>
       </c>
       <c r="F26">
-        <v>0.0666926520126698</v>
+        <v>0.0006875605778882233</v>
       </c>
       <c r="G26">
-        <v>-0.04309381646966162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03214514619984143</v>
+      </c>
+      <c r="H26">
+        <v>0.02251519655602843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06015027544950056</v>
+        <v>-0.02381815638617597</v>
       </c>
       <c r="C27">
-        <v>0.02603981716514234</v>
+        <v>-0.008695920277265498</v>
       </c>
       <c r="D27">
-        <v>0.02692429053217372</v>
+        <v>0.01493305339409425</v>
       </c>
       <c r="E27">
-        <v>0.03830931028123585</v>
+        <v>-0.006652266232331378</v>
       </c>
       <c r="F27">
-        <v>0.05504574139971632</v>
+        <v>-0.01695802198697359</v>
       </c>
       <c r="G27">
-        <v>-0.04283281789496193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01743875090164222</v>
+      </c>
+      <c r="H27">
+        <v>0.002287178859930191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04522503803493381</v>
+        <v>-0.1519454408199523</v>
       </c>
       <c r="C28">
-        <v>-0.05533812324108581</v>
+        <v>-0.02634584653735692</v>
       </c>
       <c r="D28">
-        <v>0.1181055942716723</v>
+        <v>-0.2236561820711703</v>
       </c>
       <c r="E28">
-        <v>-0.1546120817785893</v>
+        <v>0.005064194023369234</v>
       </c>
       <c r="F28">
-        <v>0.04600569228720558</v>
+        <v>0.04731128422254128</v>
       </c>
       <c r="G28">
-        <v>-0.01629138000423249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01179303704352547</v>
+      </c>
+      <c r="H28">
+        <v>-0.009207253538245494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02190048539877773</v>
+        <v>-0.02209705074413269</v>
       </c>
       <c r="C29">
-        <v>0.005201746764248043</v>
+        <v>-0.000987110762844324</v>
       </c>
       <c r="D29">
-        <v>0.005021281115116846</v>
+        <v>0.007206504696332348</v>
       </c>
       <c r="E29">
-        <v>0.04956811993198482</v>
+        <v>-0.01335593615033548</v>
       </c>
       <c r="F29">
-        <v>0.04931374945802567</v>
+        <v>-0.01585115819670443</v>
       </c>
       <c r="G29">
-        <v>-0.06400158336011461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04048321565536783</v>
+      </c>
+      <c r="H29">
+        <v>0.002541876411340895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09101368900647866</v>
+        <v>-0.05153376748772129</v>
       </c>
       <c r="C30">
-        <v>0.05946766731247174</v>
+        <v>0.005825654476332091</v>
       </c>
       <c r="D30">
-        <v>-0.01074893010287413</v>
+        <v>0.0695259256665642</v>
       </c>
       <c r="E30">
-        <v>0.06787651210138958</v>
+        <v>0.0293489946750082</v>
       </c>
       <c r="F30">
-        <v>0.09381459655387379</v>
+        <v>-0.05014456889525429</v>
       </c>
       <c r="G30">
-        <v>-0.05315328119840261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05296936897142041</v>
+      </c>
+      <c r="H30">
+        <v>0.06565144641835992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06097878778119899</v>
+        <v>-0.05429518812350361</v>
       </c>
       <c r="C31">
-        <v>0.02923902812454515</v>
+        <v>-0.01337820171405165</v>
       </c>
       <c r="D31">
-        <v>-0.02610091613578738</v>
+        <v>0.0254768015959851</v>
       </c>
       <c r="E31">
-        <v>0.001067398549352561</v>
+        <v>0.005305243047244988</v>
       </c>
       <c r="F31">
-        <v>0.04138028031398561</v>
+        <v>-0.01018242391240432</v>
       </c>
       <c r="G31">
-        <v>-0.07627902686519988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01670640345288329</v>
+      </c>
+      <c r="H31">
+        <v>0.01060749555056507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02002381767082951</v>
+        <v>-0.01264083231069406</v>
       </c>
       <c r="C32">
-        <v>0.01523513396803523</v>
+        <v>-0.01361760199013065</v>
       </c>
       <c r="D32">
-        <v>-0.01684536964738375</v>
+        <v>0.004896212707497462</v>
       </c>
       <c r="E32">
-        <v>0.07932795230629303</v>
+        <v>-0.03064267267249898</v>
       </c>
       <c r="F32">
-        <v>0.08047494518679849</v>
+        <v>-0.03828808562771929</v>
       </c>
       <c r="G32">
-        <v>-0.05712933418363417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03207831571316298</v>
+      </c>
+      <c r="H32">
+        <v>0.06461026570384422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0491269961360585</v>
+        <v>-0.03948519834322619</v>
       </c>
       <c r="C33">
-        <v>0.01767902700913795</v>
+        <v>-0.000791720058268576</v>
       </c>
       <c r="D33">
-        <v>-0.04707401679637278</v>
+        <v>0.03329872673723273</v>
       </c>
       <c r="E33">
-        <v>0.02831228486127648</v>
+        <v>0.02394947045320589</v>
       </c>
       <c r="F33">
-        <v>0.09054842353825143</v>
+        <v>-0.002919268905398831</v>
       </c>
       <c r="G33">
-        <v>-0.0678458205342698</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0454256524969166</v>
+      </c>
+      <c r="H33">
+        <v>0.04330253927111876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03251553851333305</v>
+        <v>-0.02678430741525242</v>
       </c>
       <c r="C34">
-        <v>0.02116429276346413</v>
+        <v>-0.01666590377597042</v>
       </c>
       <c r="D34">
-        <v>-0.01241819515907149</v>
+        <v>0.03634567660245234</v>
       </c>
       <c r="E34">
-        <v>0.02792555872859777</v>
+        <v>-0.008795795946464843</v>
       </c>
       <c r="F34">
-        <v>0.05943457693345787</v>
+        <v>-0.01792757869710984</v>
       </c>
       <c r="G34">
-        <v>-0.01614237571935614</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0199498545825954</v>
+      </c>
+      <c r="H34">
+        <v>0.0401026342481615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01532546440488192</v>
+        <v>-0.0210735174746782</v>
       </c>
       <c r="C36">
-        <v>0.002205562229344215</v>
+        <v>0.004218162463849333</v>
       </c>
       <c r="D36">
-        <v>-0.00037677088816889</v>
+        <v>0.001825434840400315</v>
       </c>
       <c r="E36">
-        <v>0.02753144952297238</v>
+        <v>-0.00686102954512346</v>
       </c>
       <c r="F36">
-        <v>0.03547155870543993</v>
+        <v>-0.004684209206149449</v>
       </c>
       <c r="G36">
-        <v>-0.03790747187318171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01947444239935029</v>
+      </c>
+      <c r="H36">
+        <v>0.01224368121261753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002479969511064404</v>
+        <v>-0.02413711305443069</v>
       </c>
       <c r="C38">
-        <v>-0.0127671839741581</v>
+        <v>-0.01608543166879695</v>
       </c>
       <c r="D38">
-        <v>-0.01739852030634797</v>
+        <v>0.007879705994482148</v>
       </c>
       <c r="E38">
-        <v>-0.02483720439017172</v>
+        <v>0.001720966560768288</v>
       </c>
       <c r="F38">
-        <v>0.04203011715416889</v>
+        <v>-0.007058974645599852</v>
       </c>
       <c r="G38">
-        <v>-0.0197131420578059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01815640848185975</v>
+      </c>
+      <c r="H38">
+        <v>0.03969975953496633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03972764015982507</v>
+        <v>-0.01767243856529066</v>
       </c>
       <c r="C39">
-        <v>0.04004099662937152</v>
+        <v>-0.0004542718373956978</v>
       </c>
       <c r="D39">
-        <v>-0.02518774648424037</v>
+        <v>0.07652170770512931</v>
       </c>
       <c r="E39">
-        <v>0.03161525222916974</v>
+        <v>0.003259386734308858</v>
       </c>
       <c r="F39">
-        <v>0.07082585718122551</v>
+        <v>-0.02038106208543769</v>
       </c>
       <c r="G39">
-        <v>-0.03078729051660419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04104965321820585</v>
+      </c>
+      <c r="H39">
+        <v>0.07055851858706756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03716878659347661</v>
+        <v>-0.0310738087710902</v>
       </c>
       <c r="C40">
-        <v>0.07328914072947001</v>
+        <v>-0.0003106388887341515</v>
       </c>
       <c r="D40">
-        <v>-0.02465284662130825</v>
+        <v>0.0212507592419015</v>
       </c>
       <c r="E40">
-        <v>-0.007881229455618838</v>
+        <v>0.02475908408580393</v>
       </c>
       <c r="F40">
-        <v>0.07732970887299095</v>
+        <v>-0.03010301282259778</v>
       </c>
       <c r="G40">
-        <v>-0.04600022394045963</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02435578853823589</v>
+      </c>
+      <c r="H40">
+        <v>0.0667647728964387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0004409857732158066</v>
+        <v>-0.01154661245257691</v>
       </c>
       <c r="C41">
-        <v>-0.001693676055512743</v>
+        <v>0.0005878866592828283</v>
       </c>
       <c r="D41">
-        <v>-0.008044998861037602</v>
+        <v>-0.01234318209804025</v>
       </c>
       <c r="E41">
-        <v>0.008158169070469162</v>
+        <v>0.00195429679691079</v>
       </c>
       <c r="F41">
-        <v>0.006649280749044887</v>
+        <v>0.001672839816874787</v>
       </c>
       <c r="G41">
-        <v>-0.05573820562598402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003168386320333498</v>
+      </c>
+      <c r="H41">
+        <v>-0.004540877692173438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3636550210015465</v>
+        <v>-0.1944173108887654</v>
       </c>
       <c r="C42">
-        <v>-0.5648344817456304</v>
+        <v>0.07491802430290825</v>
       </c>
       <c r="D42">
-        <v>-0.6129884380134809</v>
+        <v>0.3360792764695248</v>
       </c>
       <c r="E42">
-        <v>-0.2232048772157587</v>
+        <v>0.200808501471916</v>
       </c>
       <c r="F42">
-        <v>-0.2628859573090101</v>
+        <v>0.8667585481650879</v>
       </c>
       <c r="G42">
-        <v>-0.1265752014071025</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1740359851421198</v>
+      </c>
+      <c r="H42">
+        <v>-0.04755682473543397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00560455846644829</v>
+        <v>-0.01276834925595201</v>
       </c>
       <c r="C43">
-        <v>-0.00549715484144789</v>
+        <v>0.00141954423924248</v>
       </c>
       <c r="D43">
-        <v>-0.01761248807855247</v>
+        <v>-0.0132429981531919</v>
       </c>
       <c r="E43">
-        <v>0.00751833203767399</v>
+        <v>0.005810097970857432</v>
       </c>
       <c r="F43">
-        <v>0.0213420433960395</v>
+        <v>0.008510991542233032</v>
       </c>
       <c r="G43">
-        <v>-0.05325173689079228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005135124456382996</v>
+      </c>
+      <c r="H43">
+        <v>0.004469308490158975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01440855775339872</v>
+        <v>-0.0141596623816362</v>
       </c>
       <c r="C44">
-        <v>-0.004191791928150199</v>
+        <v>-0.001083866694318747</v>
       </c>
       <c r="D44">
-        <v>-0.02254040484055087</v>
+        <v>0.02446284473003724</v>
       </c>
       <c r="E44">
-        <v>0.01102145926933832</v>
+        <v>-0.004950183360647085</v>
       </c>
       <c r="F44">
-        <v>0.1133076032530937</v>
+        <v>0.004486517010283165</v>
       </c>
       <c r="G44">
-        <v>-0.09270280330631205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03718418315949268</v>
+      </c>
+      <c r="H44">
+        <v>0.06133282986956794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01867529134282854</v>
+        <v>-0.01819799986466909</v>
       </c>
       <c r="C46">
-        <v>0.01259246485738489</v>
+        <v>0.004248914809595913</v>
       </c>
       <c r="D46">
-        <v>-0.02435340030644519</v>
+        <v>0.01318209548101211</v>
       </c>
       <c r="E46">
-        <v>0.04355077366620949</v>
+        <v>-0.001210074678717442</v>
       </c>
       <c r="F46">
-        <v>0.06228213442305057</v>
+        <v>-0.01493952667377961</v>
       </c>
       <c r="G46">
-        <v>-0.06817593946487992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04590974134399348</v>
+      </c>
+      <c r="H46">
+        <v>0.01535059067857357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09410189424101316</v>
+        <v>-0.07437994221117787</v>
       </c>
       <c r="C47">
-        <v>0.03252035134200899</v>
+        <v>-0.02838101234429289</v>
       </c>
       <c r="D47">
-        <v>-0.008101126355704272</v>
+        <v>0.04562779660253395</v>
       </c>
       <c r="E47">
-        <v>0.0250316386334243</v>
+        <v>2.349156714454168e-06</v>
       </c>
       <c r="F47">
-        <v>0.02266024977319322</v>
+        <v>-0.02135134125621868</v>
       </c>
       <c r="G47">
-        <v>-0.0967804069911687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008503899333199177</v>
+      </c>
+      <c r="H47">
+        <v>-0.02104902660191607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01711166774704505</v>
+        <v>-0.02215956889597292</v>
       </c>
       <c r="C48">
-        <v>0.006021399637288246</v>
+        <v>-0.006174176926102871</v>
       </c>
       <c r="D48">
-        <v>-0.01495826436780709</v>
+        <v>0.008337568491606157</v>
       </c>
       <c r="E48">
-        <v>0.02067594699592977</v>
+        <v>-0.001420429223632915</v>
       </c>
       <c r="F48">
-        <v>0.05165862489028901</v>
+        <v>-0.0085237110007141</v>
       </c>
       <c r="G48">
-        <v>-0.02839054609338267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02530634316259436</v>
+      </c>
+      <c r="H48">
+        <v>0.02001798930027605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08689465484598018</v>
+        <v>-0.07299317545594565</v>
       </c>
       <c r="C50">
-        <v>0.03697774538144634</v>
+        <v>-0.02591139493111747</v>
       </c>
       <c r="D50">
-        <v>-0.02572987717404357</v>
+        <v>0.04504693072711703</v>
       </c>
       <c r="E50">
-        <v>0.03209981099780206</v>
+        <v>-0.01548324947006474</v>
       </c>
       <c r="F50">
-        <v>0.04998864096521608</v>
+        <v>-0.01902524554037504</v>
       </c>
       <c r="G50">
-        <v>-0.04755130931178424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01303723811496876</v>
+      </c>
+      <c r="H50">
+        <v>-0.001197507476453673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.017550179349006</v>
+        <v>-0.01825581425925072</v>
       </c>
       <c r="C51">
-        <v>-0.008682832537568382</v>
+        <v>0.002061749741878565</v>
       </c>
       <c r="D51">
-        <v>-0.01107565454536458</v>
+        <v>-0.006772750326361331</v>
       </c>
       <c r="E51">
-        <v>-0.01252354154711277</v>
+        <v>-0.001682052100696468</v>
       </c>
       <c r="F51">
-        <v>0.1112521870986601</v>
+        <v>0.01114412232064582</v>
       </c>
       <c r="G51">
-        <v>-0.05858766966361251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04791370559087403</v>
+      </c>
+      <c r="H51">
+        <v>0.05407290390647206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1054638298894248</v>
+        <v>-0.09362732078246191</v>
       </c>
       <c r="C53">
-        <v>0.04964096504454169</v>
+        <v>-0.03576046501014635</v>
       </c>
       <c r="D53">
-        <v>-0.01146341321471943</v>
+        <v>0.08212946524167396</v>
       </c>
       <c r="E53">
-        <v>0.04566667012731861</v>
+        <v>-0.006328451021378905</v>
       </c>
       <c r="F53">
-        <v>-0.03797898951250167</v>
+        <v>-0.04868290409577795</v>
       </c>
       <c r="G53">
-        <v>-0.02978208093278631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04344643732043385</v>
+      </c>
+      <c r="H53">
+        <v>-0.04403340908811397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02137080674825114</v>
+        <v>-0.02642713790868149</v>
       </c>
       <c r="C54">
-        <v>0.01151641443607036</v>
+        <v>-0.01082289694985244</v>
       </c>
       <c r="D54">
-        <v>0.009356771169145439</v>
+        <v>-0.01334962852273223</v>
       </c>
       <c r="E54">
-        <v>0.0361474810131578</v>
+        <v>-0.007036018842669425</v>
       </c>
       <c r="F54">
-        <v>0.05056360825031991</v>
+        <v>-0.006493419182982788</v>
       </c>
       <c r="G54">
-        <v>-0.07776784603872819</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03922297258911087</v>
+      </c>
+      <c r="H54">
+        <v>-0.002188412103188179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1060074998798375</v>
+        <v>-0.076841245495616</v>
       </c>
       <c r="C55">
-        <v>0.02588518471645334</v>
+        <v>-0.0306328671052538</v>
       </c>
       <c r="D55">
-        <v>0.007016921490705796</v>
+        <v>0.07794486800520042</v>
       </c>
       <c r="E55">
-        <v>0.07186098442867946</v>
+        <v>-0.01380189122211686</v>
       </c>
       <c r="F55">
-        <v>-0.0303115332890237</v>
+        <v>-0.03929180583600204</v>
       </c>
       <c r="G55">
-        <v>-0.07266350596353333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01934690085501136</v>
+      </c>
+      <c r="H55">
+        <v>-0.05262984281622881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.145733443217053</v>
+        <v>-0.1275932680477851</v>
       </c>
       <c r="C56">
-        <v>0.08222714402183384</v>
+        <v>-0.05452085564207065</v>
       </c>
       <c r="D56">
-        <v>0.02897940257588005</v>
+        <v>0.1032150056199279</v>
       </c>
       <c r="E56">
-        <v>0.06833062251407428</v>
+        <v>-0.009808300465451451</v>
       </c>
       <c r="F56">
-        <v>-0.09250012572467246</v>
+        <v>-0.07835823918168601</v>
       </c>
       <c r="G56">
-        <v>0.03872995244343295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07846388821383393</v>
+      </c>
+      <c r="H56">
+        <v>-0.05331648596159736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04637024983779756</v>
+        <v>-0.03861012960680994</v>
       </c>
       <c r="C57">
-        <v>0.00540589259637774</v>
+        <v>0.01104981356576612</v>
       </c>
       <c r="D57">
-        <v>-0.01506962603297249</v>
+        <v>0.030142300660879</v>
       </c>
       <c r="E57">
-        <v>-0.01659406492410536</v>
+        <v>0.005048189012354126</v>
       </c>
       <c r="F57">
-        <v>0.07365064874042541</v>
+        <v>-0.01656572613767133</v>
       </c>
       <c r="G57">
-        <v>-0.06209175525218284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05354548931730547</v>
+      </c>
+      <c r="H57">
+        <v>0.04319587594991902</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2095040487847588</v>
+        <v>-0.1433396034327456</v>
       </c>
       <c r="C58">
-        <v>0.08506799130266084</v>
+        <v>-0.040031767077412</v>
       </c>
       <c r="D58">
-        <v>-0.1113607910715848</v>
+        <v>0.1578573212449702</v>
       </c>
       <c r="E58">
-        <v>0.09410642034354091</v>
+        <v>0.1685160775244468</v>
       </c>
       <c r="F58">
-        <v>0.3601813375274999</v>
+        <v>0.02736364352428448</v>
       </c>
       <c r="G58">
-        <v>-0.1127674568714859</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8377444892201795</v>
+      </c>
+      <c r="H58">
+        <v>-0.3623479110256375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04850081755046575</v>
+        <v>-0.1596920066963693</v>
       </c>
       <c r="C59">
-        <v>-0.01293430200738755</v>
+        <v>-0.03422582978724217</v>
       </c>
       <c r="D59">
-        <v>0.1090388322723992</v>
+        <v>-0.2232331025159558</v>
       </c>
       <c r="E59">
-        <v>-0.1468938556389257</v>
+        <v>0.02340819200673258</v>
       </c>
       <c r="F59">
-        <v>0.06583923640047172</v>
+        <v>0.02755874617058563</v>
       </c>
       <c r="G59">
-        <v>0.007933826638927234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01364908924381661</v>
+      </c>
+      <c r="H59">
+        <v>0.02253435397790018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1618402502028764</v>
+        <v>-0.1765527609115631</v>
       </c>
       <c r="C60">
-        <v>0.04596695387413898</v>
+        <v>-0.03362567914744231</v>
       </c>
       <c r="D60">
-        <v>-0.06122291955515677</v>
+        <v>0.01962407837491704</v>
       </c>
       <c r="E60">
-        <v>-0.07965392716467377</v>
+        <v>0.05020940143095409</v>
       </c>
       <c r="F60">
-        <v>0.1610016773394853</v>
+        <v>-0.03319969105292112</v>
       </c>
       <c r="G60">
-        <v>0.311475090010961</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03567391339743053</v>
+      </c>
+      <c r="H60">
+        <v>0.3885824686178891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02068899207602533</v>
+        <v>-0.02109345899798777</v>
       </c>
       <c r="C61">
-        <v>0.009456988849589093</v>
+        <v>-0.005963452238265503</v>
       </c>
       <c r="D61">
-        <v>-0.0165721113480327</v>
+        <v>0.04370636597998423</v>
       </c>
       <c r="E61">
-        <v>0.01655868384975518</v>
+        <v>-0.003864953007033177</v>
       </c>
       <c r="F61">
-        <v>0.03949929687931669</v>
+        <v>-0.01880372996180573</v>
       </c>
       <c r="G61">
-        <v>-0.01911223708600565</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02412941561503832</v>
+      </c>
+      <c r="H61">
+        <v>0.05082720300629129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01424116301005932</v>
+        <v>-0.01255031391130327</v>
       </c>
       <c r="C63">
-        <v>0.006925839342186282</v>
+        <v>0.002749808680843355</v>
       </c>
       <c r="D63">
-        <v>-0.0197616292663394</v>
+        <v>0.01745978430677459</v>
       </c>
       <c r="E63">
-        <v>0.03909931046766848</v>
+        <v>-0.004759748737977174</v>
       </c>
       <c r="F63">
-        <v>0.01501827119609878</v>
+        <v>-0.01316814039767012</v>
       </c>
       <c r="G63">
-        <v>-0.05655396895822541</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01756415080770333</v>
+      </c>
+      <c r="H63">
+        <v>0.005938105605936566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03411635854990843</v>
+        <v>-0.03928125486291897</v>
       </c>
       <c r="C64">
-        <v>0.002452176265261914</v>
+        <v>-0.008710512147490367</v>
       </c>
       <c r="D64">
-        <v>0.009142403186393103</v>
+        <v>0.03755324499875289</v>
       </c>
       <c r="E64">
-        <v>0.05974022351904135</v>
+        <v>-0.01146415534147008</v>
       </c>
       <c r="F64">
-        <v>0.02737878399102084</v>
+        <v>-0.005233959773355988</v>
       </c>
       <c r="G64">
-        <v>-0.06001435890656659</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.004602828141361339</v>
+      </c>
+      <c r="H64">
+        <v>0.03862457713463043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02122686621678044</v>
+        <v>-0.02771126845417736</v>
       </c>
       <c r="C65">
-        <v>0.01488092700280629</v>
+        <v>0.005629015765274419</v>
       </c>
       <c r="D65">
-        <v>-0.0145689302694733</v>
+        <v>0.05865465055475244</v>
       </c>
       <c r="E65">
-        <v>0.0217839825844737</v>
+        <v>-0.009912438541110742</v>
       </c>
       <c r="F65">
-        <v>0.01794825537921174</v>
+        <v>-0.03324749084938111</v>
       </c>
       <c r="G65">
-        <v>0.01540786166650804</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0001611522739416213</v>
+      </c>
+      <c r="H65">
+        <v>0.0645078786313279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04029827108098355</v>
+        <v>-0.02396239571297266</v>
       </c>
       <c r="C66">
-        <v>0.04227631552995481</v>
+        <v>-0.00513632669138077</v>
       </c>
       <c r="D66">
-        <v>-0.02731872606890588</v>
+        <v>0.09055133961179723</v>
       </c>
       <c r="E66">
-        <v>0.03100918074312858</v>
+        <v>0.004471286842638161</v>
       </c>
       <c r="F66">
-        <v>0.06206009200164889</v>
+        <v>-0.03856143368124496</v>
       </c>
       <c r="G66">
-        <v>-0.01871191089447513</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03311576203994428</v>
+      </c>
+      <c r="H66">
+        <v>0.07340706580909634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01441092991311108</v>
+        <v>-0.04431132686862373</v>
       </c>
       <c r="C67">
-        <v>-0.002628663760082429</v>
+        <v>-0.01916241860680795</v>
       </c>
       <c r="D67">
-        <v>-0.01391872748634776</v>
+        <v>0.004301259680621364</v>
       </c>
       <c r="E67">
-        <v>-0.039696765990934</v>
+        <v>0.005891847130145074</v>
       </c>
       <c r="F67">
-        <v>0.02785956466409228</v>
+        <v>-0.01532453168036216</v>
       </c>
       <c r="G67">
-        <v>-0.005936015487707724</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.002571212789729944</v>
+      </c>
+      <c r="H67">
+        <v>0.03821825265444477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06322451890951312</v>
+        <v>-0.1580450394634603</v>
       </c>
       <c r="C68">
-        <v>-0.03418658251443941</v>
+        <v>-0.01350986266042759</v>
       </c>
       <c r="D68">
-        <v>0.1373194403533174</v>
+        <v>-0.2247465212452589</v>
       </c>
       <c r="E68">
-        <v>-0.1474415181180384</v>
+        <v>0.01839456580776182</v>
       </c>
       <c r="F68">
-        <v>0.05642058049783522</v>
+        <v>0.05249659037866515</v>
       </c>
       <c r="G68">
-        <v>0.0427866482672946</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02559727189335893</v>
+      </c>
+      <c r="H68">
+        <v>-0.04163995851170751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07039436298839735</v>
+        <v>-0.05874226187268523</v>
       </c>
       <c r="C69">
-        <v>0.0386542311525318</v>
+        <v>-0.02755385397281269</v>
       </c>
       <c r="D69">
-        <v>-0.001851802369330754</v>
+        <v>0.04158863498753547</v>
       </c>
       <c r="E69">
-        <v>0.006088626131425203</v>
+        <v>0.001933946611289742</v>
       </c>
       <c r="F69">
-        <v>0.01665016921900585</v>
+        <v>-0.03103128034622843</v>
       </c>
       <c r="G69">
-        <v>-0.09065143397638686</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01529418471833324</v>
+      </c>
+      <c r="H69">
+        <v>0.004582841517055164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07073341602270494</v>
+        <v>-0.1489998012418397</v>
       </c>
       <c r="C71">
-        <v>-0.04367668150592363</v>
+        <v>-0.02170424238334867</v>
       </c>
       <c r="D71">
-        <v>0.1213117489820834</v>
+        <v>-0.1968730809140681</v>
       </c>
       <c r="E71">
-        <v>-0.2030644081422749</v>
+        <v>0.02401711110149466</v>
       </c>
       <c r="F71">
-        <v>0.05708738272774799</v>
+        <v>0.05774100633399123</v>
       </c>
       <c r="G71">
-        <v>-0.01134896399011718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02440637589652899</v>
+      </c>
+      <c r="H71">
+        <v>-0.02868527744063841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1142191905625004</v>
+        <v>-0.08221648692782188</v>
       </c>
       <c r="C72">
-        <v>0.08624759151724792</v>
+        <v>-0.03789558938459107</v>
       </c>
       <c r="D72">
-        <v>0.01252634137581201</v>
+        <v>0.07783076624915826</v>
       </c>
       <c r="E72">
-        <v>0.01794841276086146</v>
+        <v>0.01109455911479189</v>
       </c>
       <c r="F72">
-        <v>0.125869469256881</v>
+        <v>-0.07934801289018396</v>
       </c>
       <c r="G72">
-        <v>0.09250690764686574</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05325808952393072</v>
+      </c>
+      <c r="H72">
+        <v>0.1655138423029374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2380852297542443</v>
+        <v>-0.2347247362587388</v>
       </c>
       <c r="C73">
-        <v>0.04796537346640723</v>
+        <v>-0.04151873693389053</v>
       </c>
       <c r="D73">
-        <v>-0.06832934678117826</v>
+        <v>0.07382436671469549</v>
       </c>
       <c r="E73">
-        <v>-0.1916613608938786</v>
+        <v>0.08476346801421278</v>
       </c>
       <c r="F73">
-        <v>0.2596666725429366</v>
+        <v>-0.03304693917941893</v>
       </c>
       <c r="G73">
-        <v>0.450330995903561</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.0505021700703307</v>
+      </c>
+      <c r="H73">
+        <v>0.5058455832619482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1435652248339782</v>
+        <v>-0.11908568634396</v>
       </c>
       <c r="C74">
-        <v>0.03098226089923256</v>
+        <v>-0.05061165362614291</v>
       </c>
       <c r="D74">
-        <v>0.01744915756120205</v>
+        <v>0.1065968850171942</v>
       </c>
       <c r="E74">
-        <v>0.03844491511202287</v>
+        <v>-0.007532604888377572</v>
       </c>
       <c r="F74">
-        <v>-0.06366227571588226</v>
+        <v>-0.05648164730714371</v>
       </c>
       <c r="G74">
-        <v>0.01539152798217254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0582029826000942</v>
+      </c>
+      <c r="H74">
+        <v>-0.03491507910751235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2371693173683631</v>
+        <v>-0.2285416968237596</v>
       </c>
       <c r="C75">
-        <v>0.140317381638816</v>
+        <v>-0.09875242441599016</v>
       </c>
       <c r="D75">
-        <v>0.04481462776934129</v>
+        <v>0.1670309246533156</v>
       </c>
       <c r="E75">
-        <v>0.08779415807466481</v>
+        <v>0.00539517106043907</v>
       </c>
       <c r="F75">
-        <v>-0.1181957291090184</v>
+        <v>-0.1392299116321245</v>
       </c>
       <c r="G75">
-        <v>0.00866689025147537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1287500468400712</v>
+      </c>
+      <c r="H75">
+        <v>-0.1213875090917804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2828949826091107</v>
+        <v>-0.2030494507345731</v>
       </c>
       <c r="C76">
-        <v>0.1221574436126781</v>
+        <v>-0.09247271731242042</v>
       </c>
       <c r="D76">
-        <v>0.1077746410969639</v>
+        <v>0.1593706159901802</v>
       </c>
       <c r="E76">
-        <v>0.1223486933366269</v>
+        <v>-0.04479091083275982</v>
       </c>
       <c r="F76">
-        <v>-0.1571812407128373</v>
+        <v>-0.1373229779999925</v>
       </c>
       <c r="G76">
-        <v>0.008049315189508943</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1244887673538621</v>
+      </c>
+      <c r="H76">
+        <v>-0.1304079168979205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1336537715739547</v>
+        <v>-0.06872189632621796</v>
       </c>
       <c r="C77">
-        <v>-0.01496056655436727</v>
+        <v>-0.007357042526956448</v>
       </c>
       <c r="D77">
-        <v>-0.08910549653087722</v>
+        <v>0.06221418010706266</v>
       </c>
       <c r="E77">
-        <v>0.05182636695204285</v>
+        <v>0.01246502277809548</v>
       </c>
       <c r="F77">
-        <v>0.1899684474119827</v>
+        <v>0.03032455469045981</v>
       </c>
       <c r="G77">
-        <v>-0.176104540411985</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09949361315485213</v>
+      </c>
+      <c r="H77">
+        <v>0.008891410501773887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06870628845141338</v>
+        <v>-0.03882942919295928</v>
       </c>
       <c r="C78">
-        <v>0.02581560718447337</v>
+        <v>-0.009483867806742896</v>
       </c>
       <c r="D78">
-        <v>-0.03054274390912587</v>
+        <v>0.05037186456974922</v>
       </c>
       <c r="E78">
-        <v>0.08797899433736794</v>
+        <v>-0.00787929617440794</v>
       </c>
       <c r="F78">
-        <v>0.08548705944057269</v>
+        <v>-0.02373137011806379</v>
       </c>
       <c r="G78">
-        <v>-0.02130727243417809</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05678466932036291</v>
+      </c>
+      <c r="H78">
+        <v>0.0726210140291568</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1345944066725935</v>
+        <v>-0.1344930807238621</v>
       </c>
       <c r="C80">
-        <v>-0.6899055835097808</v>
+        <v>-0.03308694655437804</v>
       </c>
       <c r="D80">
-        <v>0.4370333916477225</v>
+        <v>0.04444195641717334</v>
       </c>
       <c r="E80">
-        <v>0.5029080903101751</v>
+        <v>-0.9454210939413517</v>
       </c>
       <c r="F80">
-        <v>0.1179704468828592</v>
+        <v>0.2112756376128498</v>
       </c>
       <c r="G80">
-        <v>0.1308890057815291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1330178055634786</v>
+      </c>
+      <c r="H80">
+        <v>0.01755480858129942</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1709490893743862</v>
+        <v>-0.1487601140727726</v>
       </c>
       <c r="C81">
-        <v>0.0970143572699199</v>
+        <v>-0.06320258154343869</v>
       </c>
       <c r="D81">
-        <v>0.05641844918482638</v>
+        <v>0.09961729583102177</v>
       </c>
       <c r="E81">
-        <v>0.06949353275490282</v>
+        <v>-0.01534413427336966</v>
       </c>
       <c r="F81">
-        <v>-0.1290805518026465</v>
+        <v>-0.08502697201658233</v>
       </c>
       <c r="G81">
-        <v>0.0290068073343082</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08407359718193942</v>
+      </c>
+      <c r="H81">
+        <v>-0.08596618237190372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04682930232075528</v>
+        <v>-0.03134803996428504</v>
       </c>
       <c r="C83">
-        <v>0.007291980211231873</v>
+        <v>-0.004992536065779997</v>
       </c>
       <c r="D83">
-        <v>-0.04115333150080217</v>
+        <v>0.02221528099096555</v>
       </c>
       <c r="E83">
-        <v>0.01053945157609029</v>
+        <v>0.006051510487614892</v>
       </c>
       <c r="F83">
-        <v>0.05106832410647978</v>
+        <v>-0.004383759581461756</v>
       </c>
       <c r="G83">
-        <v>-0.0482809515211216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03833187864967293</v>
+      </c>
+      <c r="H83">
+        <v>0.03877327772114374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2587477540791981</v>
+        <v>-0.219165676645477</v>
       </c>
       <c r="C85">
-        <v>0.114911887164165</v>
+        <v>-0.08278525392936407</v>
       </c>
       <c r="D85">
-        <v>0.06138605269954435</v>
+        <v>0.1689363371657526</v>
       </c>
       <c r="E85">
-        <v>0.09220572107051137</v>
+        <v>-0.002444346078076514</v>
       </c>
       <c r="F85">
-        <v>-0.1034275403836437</v>
+        <v>-0.123984731191977</v>
       </c>
       <c r="G85">
-        <v>-0.03811482824327202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1380665628678317</v>
+      </c>
+      <c r="H85">
+        <v>-0.08838726476813054</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00374613360379078</v>
+        <v>-0.01989535479086108</v>
       </c>
       <c r="C86">
-        <v>-0.005582206225376586</v>
+        <v>0.001207711978903442</v>
       </c>
       <c r="D86">
-        <v>-0.02814168136697187</v>
+        <v>0.009154782137952247</v>
       </c>
       <c r="E86">
-        <v>0.04805622617041815</v>
+        <v>0.008664203336138718</v>
       </c>
       <c r="F86">
-        <v>0.06521164414614615</v>
+        <v>0.01732309046201054</v>
       </c>
       <c r="G86">
-        <v>-0.01982361176604915</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06038364398245407</v>
+      </c>
+      <c r="H86">
+        <v>0.08168093527814731</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03856392505379491</v>
+        <v>-0.02670280711398326</v>
       </c>
       <c r="C87">
-        <v>-0.01010669661907746</v>
+        <v>-0.001283187789444201</v>
       </c>
       <c r="D87">
-        <v>-0.006698482044270042</v>
+        <v>0.03280583320119791</v>
       </c>
       <c r="E87">
-        <v>0.02882978486156738</v>
+        <v>-0.008420893349346856</v>
       </c>
       <c r="F87">
-        <v>0.1151327093287083</v>
+        <v>-0.007001083162224728</v>
       </c>
       <c r="G87">
-        <v>-0.03148563123910201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07682935427343526</v>
+      </c>
+      <c r="H87">
+        <v>0.07645832379019177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009694520653907813</v>
+        <v>-0.03414741267474172</v>
       </c>
       <c r="C88">
-        <v>0.003439576633389887</v>
+        <v>0.01235522009025186</v>
       </c>
       <c r="D88">
-        <v>0.01206892525841831</v>
+        <v>0.006840040247185739</v>
       </c>
       <c r="E88">
-        <v>0.003472460882344814</v>
+        <v>-0.006533109405490862</v>
       </c>
       <c r="F88">
-        <v>0.0007430476417151841</v>
+        <v>-0.008328593744109701</v>
       </c>
       <c r="G88">
-        <v>-0.06190620580611466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004561989693524359</v>
+      </c>
+      <c r="H88">
+        <v>0.0133168873408539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09014849179065491</v>
+        <v>-0.2552751424522945</v>
       </c>
       <c r="C89">
-        <v>-0.05702858482674159</v>
+        <v>-0.03481171984412067</v>
       </c>
       <c r="D89">
-        <v>0.1772257872278018</v>
+        <v>-0.3491048220581077</v>
       </c>
       <c r="E89">
-        <v>-0.2605018447005303</v>
+        <v>0.0361595716215808</v>
       </c>
       <c r="F89">
-        <v>0.1014497576050571</v>
+        <v>0.05505950661618501</v>
       </c>
       <c r="G89">
-        <v>-0.042203672372852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0184704001427987</v>
+      </c>
+      <c r="H89">
+        <v>-0.004081931274800491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08012905040430968</v>
+        <v>-0.2048956498090773</v>
       </c>
       <c r="C90">
-        <v>-0.09073451787685688</v>
+        <v>-0.02827728469175597</v>
       </c>
       <c r="D90">
-        <v>0.2253782947406645</v>
+        <v>-0.3081687926284379</v>
       </c>
       <c r="E90">
-        <v>-0.2615437193667546</v>
+        <v>0.02760803008513077</v>
       </c>
       <c r="F90">
-        <v>0.05300528388073877</v>
+        <v>0.07462908698921525</v>
       </c>
       <c r="G90">
-        <v>-0.05147200983556369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02646755196894744</v>
+      </c>
+      <c r="H90">
+        <v>-0.06831996818405767</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3146195436428613</v>
+        <v>-0.2335664944819005</v>
       </c>
       <c r="C91">
-        <v>0.135967779819263</v>
+        <v>-0.09890498041760068</v>
       </c>
       <c r="D91">
-        <v>0.05499126290378369</v>
+        <v>0.1577251780125916</v>
       </c>
       <c r="E91">
-        <v>0.08533434296782524</v>
+        <v>-0.0001546089381905542</v>
       </c>
       <c r="F91">
-        <v>-0.2296459618454462</v>
+        <v>-0.130556778202451</v>
       </c>
       <c r="G91">
-        <v>0.03646783236564681</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1498544291819212</v>
+      </c>
+      <c r="H91">
+        <v>-0.1683928522222413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1694990225579238</v>
+        <v>-0.2514162232688361</v>
       </c>
       <c r="C92">
-        <v>-0.008492555713180812</v>
+        <v>-0.09158325616801254</v>
       </c>
       <c r="D92">
-        <v>0.3398515398064652</v>
+        <v>-0.2338054453643193</v>
       </c>
       <c r="E92">
-        <v>-0.2954820371506389</v>
+        <v>0.01400998709405137</v>
       </c>
       <c r="F92">
-        <v>-0.1030790761750341</v>
+        <v>0.00473788307489609</v>
       </c>
       <c r="G92">
-        <v>-0.4807743500632839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.004279704287866753</v>
+      </c>
+      <c r="H92">
+        <v>-0.1519774210035403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08642744139804844</v>
+        <v>-0.2289357664965504</v>
       </c>
       <c r="C93">
-        <v>-0.09512513878135996</v>
+        <v>-0.03972856541261115</v>
       </c>
       <c r="D93">
-        <v>0.2592010791215965</v>
+        <v>-0.3277041156290463</v>
       </c>
       <c r="E93">
-        <v>-0.3744984467932607</v>
+        <v>0.05066387826539875</v>
       </c>
       <c r="F93">
-        <v>0.01064745658661593</v>
+        <v>0.0825896648743627</v>
       </c>
       <c r="G93">
-        <v>0.03441391078883682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02299661612420615</v>
+      </c>
+      <c r="H93">
+        <v>-0.01011778309135474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3082846184946421</v>
+        <v>-0.2572982157020063</v>
       </c>
       <c r="C94">
-        <v>0.1938935918272069</v>
+        <v>-0.08896246266484749</v>
       </c>
       <c r="D94">
-        <v>0.1032241214794538</v>
+        <v>0.1553284132192304</v>
       </c>
       <c r="E94">
-        <v>0.1032749642346312</v>
+        <v>0.01188093149376238</v>
       </c>
       <c r="F94">
-        <v>-0.2004808782515778</v>
+        <v>-0.1744538283726877</v>
       </c>
       <c r="G94">
-        <v>0.06716511703829688</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1369260776881355</v>
+      </c>
+      <c r="H94">
+        <v>-0.1938837317130974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06770623893567594</v>
+        <v>-0.05368584861475807</v>
       </c>
       <c r="C95">
-        <v>0.03944856522195163</v>
+        <v>-0.02825409538926973</v>
       </c>
       <c r="D95">
-        <v>-0.09896800439746535</v>
+        <v>0.08754930593403569</v>
       </c>
       <c r="E95">
-        <v>0.06182122343689305</v>
+        <v>0.08314300800094115</v>
       </c>
       <c r="F95">
-        <v>0.01122116506306143</v>
+        <v>-0.00224531515986289</v>
       </c>
       <c r="G95">
-        <v>-0.1816582244621746</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.0338203354252033</v>
+      </c>
+      <c r="H95">
+        <v>0.04991025613368991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1821550630034715</v>
+        <v>-0.1801943219112344</v>
       </c>
       <c r="C98">
-        <v>-0.001507792270090383</v>
+        <v>-0.06475175582662285</v>
       </c>
       <c r="D98">
-        <v>-0.04066834995526968</v>
+        <v>0.04952684905954004</v>
       </c>
       <c r="E98">
-        <v>-0.1165463353482604</v>
+        <v>0.04823525557635669</v>
       </c>
       <c r="F98">
-        <v>0.1449813272326376</v>
+        <v>-0.006873632606374324</v>
       </c>
       <c r="G98">
-        <v>0.3702721170721575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0770427123865025</v>
+      </c>
+      <c r="H98">
+        <v>0.3719596642871857</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007376468222490612</v>
+        <v>-0.01537667244839499</v>
       </c>
       <c r="C101">
-        <v>0.02112235699084057</v>
+        <v>0.0009581963500582133</v>
       </c>
       <c r="D101">
-        <v>-0.02071690170995103</v>
+        <v>0.008524369255134627</v>
       </c>
       <c r="E101">
-        <v>0.08898743647259637</v>
+        <v>-0.005028984763985448</v>
       </c>
       <c r="F101">
-        <v>0.1569074400580923</v>
+        <v>-0.01874681672084219</v>
       </c>
       <c r="G101">
-        <v>-0.1873963940603068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1084768724178591</v>
+      </c>
+      <c r="H101">
+        <v>-0.02493658165371513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1144607170049272</v>
+        <v>-0.1056717965288353</v>
       </c>
       <c r="C102">
-        <v>0.05985008906260661</v>
+        <v>-0.0325839849479624</v>
       </c>
       <c r="D102">
-        <v>0.008700985920986486</v>
+        <v>0.0829824434563934</v>
       </c>
       <c r="E102">
-        <v>0.06245891588667818</v>
+        <v>-0.005504604561640696</v>
       </c>
       <c r="F102">
-        <v>-0.1032700206573645</v>
+        <v>-0.06401797160488623</v>
       </c>
       <c r="G102">
-        <v>-0.002456619704803817</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07741749443676353</v>
+      </c>
+      <c r="H102">
+        <v>-0.06453517875899896</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03104391499708363</v>
+        <v>-0.01905965518951811</v>
       </c>
       <c r="C103">
-        <v>0.01566495880002306</v>
+        <v>-0.006872120966958787</v>
       </c>
       <c r="D103">
-        <v>0.005527379669834301</v>
+        <v>0.01733133691237424</v>
       </c>
       <c r="E103">
-        <v>0.01788379330544723</v>
+        <v>-0.01110625094643781</v>
       </c>
       <c r="F103">
-        <v>0.00919688532116488</v>
+        <v>-0.01273779904677015</v>
       </c>
       <c r="G103">
-        <v>-0.02046215648693209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0002549311659459743</v>
+      </c>
+      <c r="H103">
+        <v>-0.007030912328419759</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2500173212832582</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9516479386149257</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.02160887523726705</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02918399205084983</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1416700630684876</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.0165554054436478</v>
+      </c>
+      <c r="H104">
+        <v>-0.04147547275686454</v>
       </c>
     </row>
   </sheetData>
